--- a/000_GitHubの基本的な使い方と練習について.xlsx
+++ b/000_GitHubの基本的な使い方と練習について.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\higuma\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\higuma\Documents\GitHub\hogehoge\Trout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="11520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="■1 運用WFについて" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'■1 運用WFについて'!$A$1:$AZ$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'■2 GitHubの基本的な使い方'!$A$1:$AZ$546</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'■2 GitHubの基本的な使い方'!$A$1:$AZ$494</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'■2 GitHubの基本的な使い方'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -3006,6 +3006,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3032,9 +3035,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12319,45 +12319,45 @@
   </sheetPr>
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:52" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30"/>
       <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
@@ -12384,16 +12384,16 @@
       <c r="AZ1" s="12"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="8" t="s">
         <v>195</v>
       </c>
@@ -12581,7 +12581,7 @@
       </c>
     </row>
     <row r="60" spans="8:22" x14ac:dyDescent="0.2">
-      <c r="V60" s="36"/>
+      <c r="V60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12609,38 +12609,38 @@
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="27" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30"/>
       <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
@@ -12667,16 +12667,16 @@
       <c r="AZ1" s="12"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="8" t="s">
         <v>197</v>
       </c>
@@ -35293,8 +35293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="P145" sqref="P145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
